--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Python\tempWorkSpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nivis\my_projects\projects_myTimetable\college_Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19E79D-FBC6-4C9C-9B71-893035CDBA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A659D23-BD3B-490D-A8F2-0E2774DF39B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1365" windowWidth="21300" windowHeight="11250" activeTab="1" xr2:uid="{133CB0F7-179D-4473-A91B-779EACBBF9B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{133CB0F7-179D-4473-A91B-779EACBBF9B7}"/>
   </bookViews>
   <sheets>
     <sheet name="CE" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
   <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>Rosa</t>
   </si>
   <si>
@@ -104,18 +101,6 @@
     <t>AP</t>
   </si>
   <si>
-    <t>Emp_code</t>
-  </si>
-  <si>
-    <t>Nick_name</t>
-  </si>
-  <si>
-    <t>Faculty_name</t>
-  </si>
-  <si>
-    <t>Dept</t>
-  </si>
-  <si>
     <t>CE</t>
   </si>
   <si>
@@ -123,6 +108,21 @@
   </si>
   <si>
     <t>EE</t>
+  </si>
+  <si>
+    <t>emp_code</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>faculty_name</t>
+  </si>
+  <si>
+    <t>nick_name</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,19 +498,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,16 +518,16 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,16 +535,16 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,16 +552,16 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,16 +569,16 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,16 +586,16 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,16 +603,16 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,16 +620,16 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,16 +637,16 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,16 +654,16 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B515BC12-AEBE-461B-BFEA-FB729533C47D}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,19 +692,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,16 +712,16 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,16 +729,16 @@
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,16 +746,16 @@
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,16 +763,16 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,16 +780,16 @@
         <v>2005</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,16 +797,16 @@
         <v>2006</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,16 +814,16 @@
         <v>2007</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,16 +831,16 @@
         <v>2008</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,16 +848,16 @@
         <v>2009</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500F3DF-6997-4A9D-94DB-0030200AADD0}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,19 +885,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,16 +905,16 @@
         <v>3001</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,16 +922,16 @@
         <v>3002</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,16 +939,16 @@
         <v>3003</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,16 +956,16 @@
         <v>3004</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,16 +973,16 @@
         <v>3005</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,16 +990,16 @@
         <v>3006</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,16 +1007,16 @@
         <v>3007</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,16 +1024,16 @@
         <v>3008</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,16 +1041,16 @@
         <v>3009</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
